--- a/Documenti/test_case_info_kiosk.xlsx
+++ b/Documenti/test_case_info_kiosk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22440" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>Test Case:</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>Test per verificare il funzionamento degli account</t>
+  </si>
+  <si>
+    <t>Funziona</t>
+  </si>
+  <si>
+    <t>Sito web presente</t>
+  </si>
+  <si>
+    <t>Fare login con l'account scelto</t>
+  </si>
+  <si>
+    <t>Vedere se visualizza la pagina corretta</t>
+  </si>
+  <si>
+    <t>Controllare che l'orologio presente visualizzi l'ora giusta</t>
+  </si>
+  <si>
+    <t>Aggiungere un avviso</t>
+  </si>
+  <si>
+    <t>Controllare che venga visualizzato</t>
+  </si>
+  <si>
+    <t>Non funziona</t>
+  </si>
+  <si>
+    <t>Test per verificare che l'orario sia giusto</t>
   </si>
 </sst>
 </file>
@@ -201,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -468,11 +495,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -500,6 +553,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -842,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J82"/>
+  <dimension ref="B1:AU82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL90" sqref="AL90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,6 +915,9 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="45" max="45" width="3.21875" customWidth="1"/>
+    <col min="46" max="46" width="1.6640625" customWidth="1"/>
+    <col min="47" max="47" width="1.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
@@ -1175,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -1200,7 +1265,9 @@
       <c r="B28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
@@ -1211,7 +1278,9 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -1568,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
@@ -1593,7 +1662,9 @@
       <c r="B58" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="18"/>
@@ -1679,7 +1750,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="13" t="s">
         <v>3</v>
       </c>
@@ -1694,12 +1765,12 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -1709,7 +1780,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -1720,11 +1791,13 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="18"/>
@@ -1733,9 +1806,11 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="12"/>
@@ -1744,7 +1819,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1834,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -1770,7 +1845,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -1781,13 +1856,13 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B73" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="24" t="s">
         <v>45</v>
       </c>
@@ -1798,70 +1873,156 @@
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F76" s="11"/>
+      <c r="G76" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="29"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F77" s="14"/>
+      <c r="G77" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="29"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
-      <c r="F78" s="15"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F78" s="14"/>
+      <c r="G78" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="29"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F79" s="14"/>
+      <c r="G79" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="29"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="15"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F80" s="14"/>
+      <c r="G80" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="29"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F81" s="14"/>
+      <c r="G81" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="29"/>
+    </row>
+    <row r="82" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G77:M77"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
